--- a/bh3/559511436971093806_2021-08-16_18-30-08.xlsx
+++ b/bh3/559511436971093806_2021-08-16_18-30-08.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5195414158</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:02:49</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44426.96028935185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>5195414158</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:00:20</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44426.95856481481</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>5195440348</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:29:31</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44426.93716435185</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>5195426266</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:28:23</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44426.93637731481</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>5195414158</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:27:50</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44426.93599537037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -914,10 +920,8 @@
           <t>5185976764</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:48:14</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44425.90849537037</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -994,10 +998,8 @@
           <t>5185613521</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:09:33</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44425.88163194444</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1057,10 +1059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:51</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44425.80684027778</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1136,10 +1136,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:54:55</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44425.70480324074</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1215,10 +1213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-17 15:48:12</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44425.65847222223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1290,10 +1286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-17 14:46:01</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44425.61528935185</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1361,10 +1355,8 @@
           <t>5181538720</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-17 12:47:20</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44425.53287037037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1432,10 +1424,8 @@
           <t>5177732473</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-17 12:38:32</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44425.52675925926</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1503,10 +1493,8 @@
           <t>5181442488</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-17 12:36:32</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44425.52537037037</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1570,10 +1558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-17 12:02:20</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44425.50162037037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1637,10 +1623,8 @@
           <t>5176817003</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-17 11:27:25</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44425.47737268519</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1704,10 +1688,8 @@
           <t>5180733978</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-17 11:09:38</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44425.46502314815</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1771,10 +1753,8 @@
           <t>5180283398</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-17 10:04:27</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44425.41975694444</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1842,10 +1822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-17 08:49:42</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44425.36784722222</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1913,10 +1891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-17 08:33:27</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44425.3565625</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1992,10 +1968,8 @@
           <t>5179594656</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-17 08:29:15</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44425.35364583333</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2063,10 +2037,8 @@
           <t>5177838541</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-17 08:29:11</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44425.35359953704</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2134,10 +2106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-17 07:58:31</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44425.33230324074</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2205,10 +2175,8 @@
           <t>5179605356</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-17 07:55:32</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44425.33023148148</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2276,10 +2244,8 @@
           <t>5179594656</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-17 07:55:03</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44425.32989583333</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2347,10 +2313,8 @@
           <t>5179547559</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-17 07:40:33</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44425.31982638889</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2422,10 +2386,8 @@
           <t>5179057595</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-17 02:36:06</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44425.10840277778</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2493,10 +2455,8 @@
           <t>5179057595</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-17 02:34:31</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44425.10730324074</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2572,10 +2532,8 @@
           <t>5176839986</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-17 02:01:40</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44425.08449074074</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
@@ -2639,10 +2597,8 @@
           <t>5176044492</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:51:45</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44425.07760416667</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2706,10 +2662,8 @@
           <t>5178905375</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:45:25</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44425.07320601852</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2785,10 +2739,8 @@
           <t>5176044492</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:14:16</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44425.05157407407</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2860,10 +2812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:09:47</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44425.04846064815</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2939,10 +2889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:40:42</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44425.02826388889</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3014,10 +2962,8 @@
           <t>5178507111</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:29:54</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44425.02076388889</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3093,10 +3039,8 @@
           <t>5178462453</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:23:51</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44425.0165625</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3172,10 +3116,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:23:46</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44425.01650462963</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3247,10 +3189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:15:54</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44425.01104166666</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3322,10 +3262,8 @@
           <t>5176598340</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:05:23</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44425.00373842593</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3397,10 +3335,8 @@
           <t>5178255471</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:55:18</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44424.99673611111</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3476,10 +3412,8 @@
           <t>5178184608</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:46:53</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44424.99089120371</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3547,10 +3481,8 @@
           <t>5176598340</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:46:40</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44424.99074074074</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3614,10 +3546,8 @@
           <t>5178049594</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:27:58</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44424.97775462963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3685,10 +3615,8 @@
           <t>5176817003</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:21:42</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44424.97340277778</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3752,10 +3680,8 @@
           <t>5175975014</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:21:08</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44424.97300925926</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3823,10 +3749,8 @@
           <t>5177927383</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:12:29</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44424.96700231481</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3890,10 +3814,8 @@
           <t>5177909861</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:10:19</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44424.96549768518</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3957,10 +3879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:07:28</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44424.96351851852</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4032,10 +3952,8 @@
           <t>5176839986</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:04:16</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44424.96129629629</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4111,10 +4029,8 @@
           <t>5177851271</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:02:53</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44424.96033564815</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4182,10 +4098,8 @@
           <t>5177838541</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:02:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44424.95972222222</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4249,10 +4163,8 @@
           <t>5175975014</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:00:19</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44424.95855324074</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4320,10 +4232,8 @@
           <t>5177732473</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:50:55</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44424.95202546296</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4399,10 +4309,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:49:13</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44424.95084490741</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4470,10 +4378,8 @@
           <t>5175722809</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:46:19</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44424.94883101852</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4552,10 +4458,8 @@
           <t>5175975014</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:43:11</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44424.94665509259</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4623,10 +4527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:41:27</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44424.94545138889</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4702,10 +4604,8 @@
           <t>5177630328</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:38:57</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44424.94371527778</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4776,10 +4676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:37:33</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44424.94274305556</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4847,10 +4745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:37:24</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44424.94263888889</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -4914,10 +4810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:37:20</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44424.94259259259</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4981,10 +4875,8 @@
           <t>5177573401</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:33:54</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44424.94020833333</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5052,10 +4944,8 @@
           <t>5176676529</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:32:53</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44424.93950231482</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5115,10 +5005,8 @@
           <t>5176430864</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:31:11</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44424.93832175926</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5195,10 +5083,8 @@
           <t>5177539180</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:30:32</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44424.93787037037</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5275,10 +5161,8 @@
           <t>5176598340</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:28:58</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44424.93678240741</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5354,10 +5238,8 @@
           <t>5177164998</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:27:38</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44424.93585648148</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5425,10 +5307,8 @@
           <t>5177056138</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:27:34</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44424.93581018518</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5496,10 +5376,8 @@
           <t>5176430864</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:26:45</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44424.93524305556</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5575,10 +5453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:26:15</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44424.93489583334</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5650,10 +5526,8 @@
           <t>5177499154</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:26:04</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44424.93476851852</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5730,10 +5604,8 @@
           <t>5177473235</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:23:46</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44424.9331712963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5801,10 +5673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:20:28</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44424.93087962963</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5876,10 +5746,8 @@
           <t>5177381685</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:19:25</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44424.93015046296</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5955,10 +5823,8 @@
           <t>5177400697</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:14:55</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44424.92702546297</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6034,10 +5900,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:14:03</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44424.92642361111</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6101,10 +5965,8 @@
           <t>5177381685</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:13:25</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44424.9259837963</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6168,10 +6030,8 @@
           <t>5177375624</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:12:49</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44424.92556712963</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -6239,10 +6099,8 @@
           <t>5176839986</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:12:18</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44424.92520833333</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6318,10 +6176,8 @@
           <t>5177359581</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:11:24</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44424.92458333333</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6385,10 +6241,8 @@
           <t>5177158944</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:09:53</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44424.92353009259</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6456,10 +6310,8 @@
           <t>5176430864</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:09:37</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44424.92334490741</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6536,10 +6388,8 @@
           <t>5177331171</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:09:25</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44424.92320601852</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6607,10 +6457,8 @@
           <t>5177324947</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:08:21</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44424.92246527778</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6674,10 +6522,8 @@
           <t>5177331171</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:08:08</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44424.92231481482</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6749,10 +6595,8 @@
           <t>5177326345</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:07:18</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44424.92173611111</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6828,10 +6672,8 @@
           <t>5177297567</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:04:47</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44424.91998842593</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6903,10 +6745,8 @@
           <t>5175722809</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:59:58</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44424.91664351852</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6974,10 +6814,8 @@
           <t>5175975014</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:57:19</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44424.91480324074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7045,10 +6883,8 @@
           <t>5176050331</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:57:07</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44424.91466435185</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7120,10 +6956,8 @@
           <t>5176169279</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:55:04</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44424.91324074074</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7199,10 +7033,8 @@
           <t>5175975014</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:54:21</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44424.91274305555</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7270,10 +7102,8 @@
           <t>5175722809</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:53:41</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44424.91228009259</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7352,10 +7182,8 @@
           <t>5177174940</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:52:32</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44424.91148148148</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7420,10 +7248,8 @@
           <t>5177178841</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:51:58</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44424.91108796297</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7491,10 +7317,8 @@
           <t>5177164998</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:50:50</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44424.91030092593</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -7570,10 +7394,8 @@
           <t>5177158944</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:50:28</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44424.9100462963</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7641,10 +7463,8 @@
           <t>5176169279</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:46:52</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44424.90754629629</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7712,10 +7532,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:45:17</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44424.90644675926</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7791,10 +7609,8 @@
           <t>5177099944</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:43:57</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44424.90552083333</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7858,10 +7674,8 @@
           <t>5176050331</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:42:55</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44424.90480324074</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7933,10 +7747,8 @@
           <t>5176598340</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:40:56</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44424.90342592593</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8004,10 +7816,8 @@
           <t>5177056138</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:39:07</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44424.90216435185</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8067,10 +7877,8 @@
           <t>5176081719</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:35:54</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44424.89993055556</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8138,10 +7946,8 @@
           <t>5176839986</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:34:29</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44424.89894675926</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8217,10 +8023,8 @@
           <t>5177006861</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:33:34</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44424.89831018518</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8288,10 +8092,8 @@
           <t>5175414110</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:30:10</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44424.89594907407</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8363,10 +8165,8 @@
           <t>5175975014</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:25:32</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44424.89273148148</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8434,10 +8234,8 @@
           <t>5176839986</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:24:44</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44424.89217592592</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8505,10 +8303,8 @@
           <t>5176676529</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:24:13</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44424.89181712963</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8584,10 +8380,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:23:12</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44424.89111111111</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8655,10 +8449,8 @@
           <t>5176038766</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:22:27</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44424.89059027778</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8734,10 +8526,8 @@
           <t>5176902953</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:22:18</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44424.89048611111</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8813,10 +8603,8 @@
           <t>5176902793</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:22:16</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44424.89046296296</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8888,10 +8676,8 @@
           <t>5176839986</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:21:46</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44424.89011574074</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8955,10 +8741,8 @@
           <t>5176839986</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:17:48</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44424.88736111111</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9026,10 +8810,8 @@
           <t>5176839986</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:16:13</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44424.88626157407</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9105,10 +8887,8 @@
           <t>5176817003</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:13:12</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44424.88416666666</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9172,10 +8952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:13:05</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44424.88408564815</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9243,10 +9021,8 @@
           <t>5176797212</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:11:14</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44424.88280092592</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9306,10 +9082,8 @@
           <t>5176794073</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:10:52</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44424.8825462963</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9369,10 +9143,8 @@
           <t>5176790830</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:09:48</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44424.88180555555</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9444,10 +9216,8 @@
           <t>5176785545</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:09:30</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44424.88159722222</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9507,10 +9277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:08:16</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44424.88074074074</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9586,10 +9354,8 @@
           <t>5176676529</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:03:39</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44424.87753472223</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9649,10 +9415,8 @@
           <t>5176713268</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:02:23</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44424.87665509259</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9716,10 +9480,8 @@
           <t>5176676529</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:02:06</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44424.87645833333</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9795,10 +9557,8 @@
           <t>5176693163</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:00:34</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44424.87539351852</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9874,10 +9634,8 @@
           <t>5176678242</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:58:55</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44424.87424768518</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9937,10 +9695,8 @@
           <t>5176676529</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:58:23</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44424.87387731481</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10000,10 +9756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:57:53</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44424.87353009259</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10079,10 +9833,8 @@
           <t>5176667241</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:57:00</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44424.87291666667</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10158,10 +9910,8 @@
           <t>5176660591</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:56:25</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44424.87251157407</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10237,10 +9987,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:54:59</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44424.8715162037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10312,10 +10060,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:54:06</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44424.87090277778</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10387,10 +10133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:53</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44424.86866898148</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10458,10 +10202,8 @@
           <t>5176598340</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:21</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44424.86829861111</v>
       </c>
       <c r="I138" t="n">
         <v>6</v>
@@ -10541,10 +10283,8 @@
           <t>5176605013</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:55</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44424.86799768519</v>
       </c>
       <c r="I139" t="n">
         <v>3</v>
@@ -10608,10 +10348,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:48</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44424.86791666667</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10679,10 +10417,8 @@
           <t>5176050331</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:48:02</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44424.86668981481</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10750,10 +10486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:18</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44424.86618055555</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10829,10 +10563,8 @@
           <t>5176570269</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:23</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44424.86554398148</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10904,10 +10636,8 @@
           <t>5176551291</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:44</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44424.86439814815</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10975,10 +10705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:35:51</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44424.85822916667</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -11054,10 +10782,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:33:30</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44424.85659722222</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11121,10 +10847,8 @@
           <t>5176437534</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:33:23</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44424.8565162037</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11192,10 +10916,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:32:52</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44424.8561574074</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11267,10 +10989,8 @@
           <t>5176430864</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:32:08</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44424.85564814815</v>
       </c>
       <c r="I149" t="n">
         <v>9</v>
@@ -11346,10 +11066,8 @@
           <t>5176409223</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:31:46</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44424.85539351852</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11413,10 +11131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:30:19</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44424.85438657407</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11484,10 +11200,8 @@
           <t>5176409223</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:30:19</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44424.85438657407</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11555,10 +11269,8 @@
           <t>5176122554</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:30:11</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44424.85429398148</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11626,10 +11338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:28:41</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44424.85325231482</v>
       </c>
       <c r="I154" t="n">
         <v>23</v>
@@ -11693,10 +11403,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:26:24</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44424.85166666667</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11760,10 +11468,8 @@
           <t>5175975014</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:25:23</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44424.85096064815</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11831,10 +11537,8 @@
           <t>5175471580</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:23:36</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44424.84972222222</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11902,10 +11606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:22:41</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44424.84908564815</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11969,10 +11671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:22:09</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44424.84871527777</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -12044,10 +11744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:21:32</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44424.84828703704</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12111,10 +11809,8 @@
           <t>5176164911</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:20:37</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44424.84765046297</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12182,10 +11878,8 @@
           <t>5176317476</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:19:06</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44424.84659722223</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12245,10 +11939,8 @@
           <t>5176164911</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:18:37</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44424.84626157407</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12316,10 +12008,8 @@
           <t>5175471580</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:18:21</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44424.84607638889</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12395,10 +12085,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:18:19</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44424.84605324074</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12462,10 +12150,8 @@
           <t>5176164911</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:17:30</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44424.84548611111</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12537,10 +12223,8 @@
           <t>5176164911</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:15:17</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44424.84394675926</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12608,10 +12292,8 @@
           <t>5176164911</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:15:01</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44424.84376157408</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12683,10 +12365,8 @@
           <t>5176164911</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:14:29</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44424.84339120371</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12754,10 +12434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:14:02</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44424.84307870371</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -12821,10 +12499,8 @@
           <t>5176164911</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:13:39</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44424.8428125</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12896,10 +12572,8 @@
           <t>5176213482</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:13:30</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44424.84270833333</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12976,10 +12650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:12:54</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44424.84229166667</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13043,10 +12715,8 @@
           <t>5175630622</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:12:25</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44424.84195601852</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13122,10 +12792,8 @@
           <t>5176164911</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:12:05</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44424.84172453704</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13193,10 +12861,8 @@
           <t>5176248420</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:11:48</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44424.84152777777</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13272,10 +12938,8 @@
           <t>5176229105</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:10:14</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44424.84043981481</v>
       </c>
       <c r="I177" t="n">
         <v>2</v>
@@ -13343,10 +13007,8 @@
           <t>5176051430</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:09:13</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44424.8397337963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13414,10 +13076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:09:08</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44424.83967592593</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13489,10 +13149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:08:57</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44424.83954861111</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13568,10 +13226,8 @@
           <t>5176223983</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:08:55</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44424.83952546296</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13647,10 +13303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:08:54</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44424.83951388889</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13726,10 +13380,8 @@
           <t>5176219449</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:08:47</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44424.83943287037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13805,10 +13457,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:08:17</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44424.83908564815</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13876,10 +13526,8 @@
           <t>5176213482</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:08:14</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44424.83905092593</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13955,10 +13603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:07:21</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44424.8384375</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14034,10 +13680,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:07:02</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44424.83821759259</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14113,10 +13757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:06:58</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44424.83817129629</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14192,10 +13834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:05:32</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44424.83717592592</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14267,10 +13907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:05:23</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44424.83707175926</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14346,10 +13984,8 @@
           <t>5176185512</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:04:26</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44424.83641203704</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14421,10 +14057,8 @@
           <t>5176136353</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:04:02</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44424.83613425926</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14492,10 +14126,8 @@
           <t>5176178765</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:04:00</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44424.83611111111</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14567,10 +14199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:03:55</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44424.83605324074</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14634,10 +14264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:03:50</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44424.83599537037</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14705,10 +14333,8 @@
           <t>5176176705</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:03:21</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44424.83565972222</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14780,10 +14406,8 @@
           <t>5176176428</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:03:16</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44424.83560185185</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14859,10 +14483,8 @@
           <t>5176169279</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:03:11</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44424.83554398148</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14938,10 +14560,8 @@
           <t>5176136353</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:03:01</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44424.83542824074</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15013,10 +14633,8 @@
           <t>5175864980</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:02:54</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44424.83534722222</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15084,10 +14702,8 @@
           <t>5176164911</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:02:48</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44424.83527777778</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15159,10 +14775,8 @@
           <t>5176136353</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:02:47</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44424.83526620371</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15234,10 +14848,8 @@
           <t>5176162673</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:02:06</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44424.83479166667</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15309,10 +14921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:01:54</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44424.83465277778</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15376,10 +14986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:01:43</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44424.83452546296</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15451,10 +15059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:01:42</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44424.83451388889</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15526,10 +15132,8 @@
           <t>5176038766</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:01:37</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44424.83445601852</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15601,10 +15205,8 @@
           <t>5176150241</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:01:37</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44424.83445601852</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15672,10 +15274,8 @@
           <t>5176136353</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:01:05</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44424.83408564814</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15743,10 +15343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:00:27</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44424.83364583334</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15818,10 +15416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:00:12</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44424.83347222222</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15897,10 +15493,8 @@
           <t>5175864980</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:00:06</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44424.83340277777</v>
       </c>
       <c r="I212" t="n">
         <v>2</v>
@@ -15972,10 +15566,8 @@
           <t>5176150241</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:00:01</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44424.83334490741</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16047,10 +15639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:59:56</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44424.83328703704</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16122,10 +15712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:59:47</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44424.83318287037</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16189,10 +15777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:59:30</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44424.83298611111</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16260,10 +15846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:58:48</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44424.8325</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16331,10 +15915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:58:47</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44424.83248842593</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16410,10 +15992,8 @@
           <t>5176131673</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:58:46</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44424.83247685185</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16489,10 +16069,8 @@
           <t>5176136353</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:58:43</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44424.83244212963</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16564,10 +16142,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:58:24</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44424.83222222222</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16635,10 +16211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:58:21</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44424.8321875</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16710,10 +16284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:58:06</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44424.83201388889</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16789,10 +16361,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:58:00</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44424.83194444444</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16860,10 +16430,8 @@
           <t>5176123705</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:57:55</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44424.83188657407</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16939,10 +16507,8 @@
           <t>5175761237</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:57:39</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44424.83170138889</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17010,10 +16576,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:57:35</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44424.8316550926</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17089,10 +16653,8 @@
           <t>5176122554</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:57:34</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44424.83164351852</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17168,10 +16730,8 @@
           <t>5175761237</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:57:24</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44424.83152777778</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17248,10 +16808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:57:23</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44424.8315162037</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17327,10 +16885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:57:08</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44424.8313425926</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17398,10 +16954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:57:03</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44424.83128472222</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17473,10 +17027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:56:52</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44424.83115740741</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17544,10 +17096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:56:27</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44424.83086805556</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17615,10 +17165,8 @@
           <t>5175864980</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:56:21</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44424.83079861111</v>
       </c>
       <c r="I235" t="n">
         <v>3</v>
@@ -17690,10 +17238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:56:08</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44424.83064814815</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17757,10 +17303,8 @@
           <t>5176110274</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:55:59</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44424.83054398148</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17828,10 +17372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:55:55</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44424.83049768519</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17908,10 +17450,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:55:52</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44424.83046296296</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17987,10 +17527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:55:46</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44424.83039351852</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18054,10 +17592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:55:40</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44424.83032407407</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18133,10 +17669,8 @@
           <t>5176098698</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:55:27</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44424.83017361111</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18204,10 +17738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:55:17</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44424.83005787037</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18271,10 +17803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:55:10</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44424.82997685186</v>
       </c>
       <c r="I244" t="n">
         <v>10</v>
@@ -18342,10 +17872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:54:43</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44424.82966435186</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18413,10 +17941,8 @@
           <t>5175602200</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:53:48</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44424.82902777778</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18492,10 +18018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:53:46</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44424.82900462963</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18568,10 +18092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:53:40</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44424.82893518519</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18639,10 +18161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:53:12</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44424.82861111111</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18710,10 +18230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:53:10</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44424.82858796296</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18777,10 +18295,8 @@
           <t>5176081719</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:53:05</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44424.82853009259</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18852,10 +18368,8 @@
           <t>5176081303</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:52:57</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44424.8284375</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18931,10 +18445,8 @@
           <t>5176073923</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:52:27</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44424.82809027778</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19010,10 +18522,8 @@
           <t>5176073221</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:52:12</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44424.82791666667</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19089,10 +18599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:51:55</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44424.82771990741</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19168,10 +18676,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:51:44</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44424.82759259259</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19244,10 +18750,8 @@
           <t>5175864980</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:51:43</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44424.82758101852</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19315,10 +18819,8 @@
           <t>5176067517</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:51:39</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44424.82753472222</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19386,10 +18888,8 @@
           <t>5176062933</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:51:38</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44424.82752314815</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19465,10 +18965,8 @@
           <t>5176071205</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:51:28</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44424.82740740741</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19536,10 +19034,8 @@
           <t>5176066839</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:51:25</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44424.82737268518</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19615,10 +19111,8 @@
           <t>5176061401</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:51:09</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44424.8271875</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19686,10 +19180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:51:02</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44424.82710648148</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19765,10 +19257,8 @@
           <t>5175975014</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:51:01</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44424.82709490741</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19836,10 +19326,8 @@
           <t>5176059313</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:50:50</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44424.82696759259</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19907,10 +19395,8 @@
           <t>5176049596</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:50:40</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44424.82685185185</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19986,10 +19472,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:50:34</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44424.82678240741</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20057,10 +19541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:50:06</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44424.82645833334</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20128,10 +19610,8 @@
           <t>5176047877</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:50:04</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44424.82643518518</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20199,10 +19679,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:49:45</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44424.82621527778</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20283,10 +19761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:49:37</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44424.82612268518</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20354,10 +19830,8 @@
           <t>5176051430</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:49:37</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44424.82612268518</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20435,10 +19909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:49:27</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44424.82600694444</v>
       </c>
       <c r="I273" t="n">
         <v>30</v>
@@ -20506,10 +19978,8 @@
           <t>5176045674</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:49:19</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44424.82591435185</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20581,10 +20051,8 @@
           <t>5176050331</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:49:17</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44424.82589120371</v>
       </c>
       <c r="I275" t="n">
         <v>14</v>
@@ -20656,10 +20124,8 @@
           <t>5176044492</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:49:02</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44424.82571759259</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20723,10 +20189,8 @@
           <t>5176038766</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:48:52</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44424.82560185185</v>
       </c>
       <c r="I277" t="n">
         <v>2</v>
@@ -20794,10 +20258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:48:39</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44424.82545138889</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20869,10 +20331,8 @@
           <t>5176036621</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:48:05</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44424.82505787037</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20940,10 +20400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:47:32</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44424.82467592593</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21007,10 +20465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:45:48</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44424.82347222222</v>
       </c>
       <c r="I281" t="n">
         <v>8</v>
@@ -21074,10 +20530,8 @@
           <t>5175477073</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:45:45</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44424.8234375</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21145,10 +20599,8 @@
           <t>5175477073</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:45:18</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44424.823125</v>
       </c>
       <c r="I283" t="n">
         <v>3</v>
@@ -21220,10 +20672,8 @@
           <t>5175477073</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:44:46</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44424.82275462963</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21295,10 +20745,8 @@
           <t>5176002306</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:44:42</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44424.82270833333</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21370,10 +20818,8 @@
           <t>5176006780</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:44:40</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44424.82268518519</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21441,10 +20887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:44:04</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44424.82226851852</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21512,10 +20956,8 @@
           <t>5175992206</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:43:07</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44424.82160879629</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21587,10 +21029,8 @@
           <t>5175987666</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:43:05</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44424.82158564815</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21662,10 +21102,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:42:03</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44424.82086805555</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21729,10 +21167,8 @@
           <t>5175477073</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:41:52</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44424.82074074074</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21808,10 +21244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:41:24</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44424.82041666667</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21883,10 +21317,8 @@
           <t>5175387553</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:41:08</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44424.82023148148</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21950,10 +21382,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:41:07</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44424.82021990741</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22018,10 +21448,8 @@
           <t>5175975014</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:40:42</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44424.81993055555</v>
       </c>
       <c r="I295" t="n">
         <v>4</v>
@@ -22089,10 +21517,8 @@
           <t>5175477073</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:40:41</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44424.81991898148</v>
       </c>
       <c r="I296" t="n">
         <v>2</v>
@@ -22160,10 +21586,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:40:29</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44424.81978009259</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22228,10 +21652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:39:58</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44424.8194212963</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22307,10 +21729,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:39:12</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44424.81888888889</v>
       </c>
       <c r="I299" t="n">
         <v>5</v>
@@ -22383,10 +21803,8 @@
           <t>5175722809</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:38:42</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44424.81854166667</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22454,10 +21872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:38:37</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44424.8184837963</v>
       </c>
       <c r="I301" t="n">
         <v>2</v>
@@ -22533,10 +21949,8 @@
           <t>5175948824</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:38:36</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44424.81847222222</v>
       </c>
       <c r="I302" t="n">
         <v>11</v>
@@ -22604,10 +22018,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:38:00</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44424.81805555556</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22680,10 +22092,8 @@
           <t>5175937239</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:37:43</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44424.8178587963</v>
       </c>
       <c r="I304" t="n">
         <v>4</v>
@@ -22751,10 +22161,8 @@
           <t>5175941413</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:37:35</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44424.81776620371</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22822,10 +22230,8 @@
           <t>5175936554</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:37:27</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44424.81767361111</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22901,10 +22307,8 @@
           <t>5175945150</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:37:23</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44424.81762731481</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22976,10 +22380,8 @@
           <t>5175761237</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:37:06</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44424.81743055556</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -23047,10 +22449,8 @@
           <t>5175897972</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:36:25</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44424.81695601852</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23118,10 +22518,8 @@
           <t>5175926245</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:35:58</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44424.81664351852</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23197,10 +22595,8 @@
           <t>5175630622</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:35:39</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44424.81642361111</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -23272,10 +22668,8 @@
           <t>5175921470</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:35:38</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44424.81641203703</v>
       </c>
       <c r="I312" t="n">
         <v>2</v>
@@ -23351,10 +22745,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:35:29</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44424.81630787037</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23422,10 +22814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:35:23</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44424.81623842593</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23493,10 +22883,8 @@
           <t>5175909920</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:35:05</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44424.8160300926</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23560,10 +22948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:34:54</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44424.81590277778</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23639,10 +23025,8 @@
           <t>5175916202</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:34:26</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44424.8155787037</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23710,10 +23094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:33:48</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44424.81513888889</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23789,10 +23171,8 @@
           <t>5175675376</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:33:38</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44424.81502314815</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23868,10 +23248,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:33:17</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44424.81478009259</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23939,10 +23317,8 @@
           <t>5175897972</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:33:14</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44424.81474537037</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24006,10 +23382,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:33:11</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44424.81471064815</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24085,10 +23459,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:33:05</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44424.8146412037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24164,10 +23536,8 @@
           <t>5175682769</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:32:54</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44424.81451388889</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24243,10 +23613,8 @@
           <t>5175900790</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:32:47</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44424.81443287037</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24306,10 +23674,8 @@
           <t>5175630622</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:31:54</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44424.81381944445</v>
       </c>
       <c r="I326" t="n">
         <v>6</v>
@@ -24377,10 +23743,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:30:14</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44424.81266203704</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24456,10 +23820,8 @@
           <t>5175872146</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:30:10</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44424.81261574074</v>
       </c>
       <c r="I328" t="n">
         <v>5</v>
@@ -24523,10 +23885,8 @@
           <t>5175864980</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:29:53</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44424.81241898148</v>
       </c>
       <c r="I329" t="n">
         <v>3</v>
@@ -24599,10 +23959,8 @@
           <t>5175864924</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:29:52</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44424.81240740741</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24678,10 +24036,8 @@
           <t>5175477073</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:29:49</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44424.81237268518</v>
       </c>
       <c r="I331" t="n">
         <v>2</v>
@@ -24757,10 +24113,8 @@
           <t>5175775204</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:29:20</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44424.81203703704</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24828,10 +24182,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:29:03</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44424.81184027778</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24907,10 +24259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:28:56</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44424.81175925926</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24979,10 +24329,8 @@
           <t>5175471580</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:28:25</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44424.81140046296</v>
       </c>
       <c r="I335" t="n">
         <v>2</v>
@@ -25054,10 +24402,8 @@
           <t>5175856404</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:28:24</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44424.81138888889</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -25135,10 +24481,8 @@
           <t>5175849641</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:28:05</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44424.81116898148</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25214,10 +24558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:28:03</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44424.81114583334</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25285,10 +24627,8 @@
           <t>5175855223</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:28:03</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44424.81114583334</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25360,10 +24700,8 @@
           <t>5175852210</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:27:56</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44424.81106481481</v>
       </c>
       <c r="I340" t="n">
         <v>4</v>
@@ -25427,10 +24765,8 @@
           <t>5175761237</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:27:50</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44424.81099537037</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25507,10 +24843,8 @@
           <t>5175477073</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:26:57</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44424.81038194444</v>
       </c>
       <c r="I342" t="n">
         <v>2</v>
@@ -25582,10 +24916,8 @@
           <t>5175841430</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:26:54</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44424.81034722222</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25653,10 +24985,8 @@
           <t>5175682769</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:26:26</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44424.81002314815</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25728,10 +25058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:26:11</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44424.80984953704</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25795,10 +25123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:26:11</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44424.80984953704</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25874,10 +25200,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:25:33</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44424.80940972222</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25953,10 +25277,8 @@
           <t>5175477073</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:25:13</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44424.80917824074</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -26024,10 +25346,8 @@
           <t>5175825322</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:24:57</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44424.80899305556</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26099,10 +25419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:24:50</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44424.80891203704</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26170,10 +25488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:24:16</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44424.80851851852</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26249,10 +25565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:24:03</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44424.80836805556</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26320,10 +25634,8 @@
           <t>5175812034</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:23:51</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44424.80822916667</v>
       </c>
       <c r="I353" t="n">
         <v>2</v>
@@ -26387,10 +25699,8 @@
           <t>5175471580</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:23:45</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44424.80815972222</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26466,10 +25776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:23:35</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44424.80804398148</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26537,10 +25845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:23:17</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44424.80783564815</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26608,10 +25914,8 @@
           <t>5175797295</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:22:18</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44424.80715277778</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26687,10 +25991,8 @@
           <t>5175795964</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:21:52</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44424.80685185185</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26762,10 +26064,8 @@
           <t>5175788608</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:21:40</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44424.80671296296</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26833,10 +26133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:21:32</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44424.80662037037</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26904,10 +26202,8 @@
           <t>5175722809</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:21:29</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44424.80658564815</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26986,10 +26282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:21:11</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44424.80637731482</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27065,10 +26359,8 @@
           <t>5175432718</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:20:43</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44424.80605324074</v>
       </c>
       <c r="I363" t="n">
         <v>4</v>
@@ -27144,10 +26436,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:20:32</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44424.80592592592</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27219,10 +26509,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:19:42</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44424.80534722222</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27298,10 +26586,8 @@
           <t>5175769437</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:19:39</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44424.8053125</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27377,10 +26663,8 @@
           <t>5175776490</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:19:26</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44424.80516203704</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27452,10 +26736,8 @@
           <t>5175776454</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:19:25</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44424.80515046296</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27531,10 +26813,8 @@
           <t>5175775204</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:19:03</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44424.80489583333</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27606,10 +26886,8 @@
           <t>5175767000</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:18:49</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44424.8047337963</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27685,10 +26963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:18:44</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44424.80467592592</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27752,10 +27028,8 @@
           <t>5175762327</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:18:11</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44424.80429398148</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27827,10 +27101,8 @@
           <t>5175477073</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:18:00</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44424.80416666667</v>
       </c>
       <c r="I373" t="n">
         <v>6</v>
@@ -27902,10 +27174,8 @@
           <t>5175675376</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:17:59</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44424.80415509259</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27981,10 +27251,8 @@
           <t>5175761237</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:17:50</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44424.80405092592</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28052,10 +27320,8 @@
           <t>5175748866</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:17:08</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44424.80356481481</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -28115,10 +27381,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:16:55</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44424.80341435185</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28194,10 +27458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:16:30</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44424.803125</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28269,10 +27531,8 @@
           <t>5175630622</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:16:21</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44424.80302083334</v>
       </c>
       <c r="I379" t="n">
         <v>56</v>
@@ -28341,10 +27601,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:16:02</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44424.80280092593</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28412,10 +27670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:15:14</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44424.80224537037</v>
       </c>
       <c r="I381" t="n">
         <v>3</v>
@@ -28491,10 +27747,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:14:01</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44424.80140046297</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28570,10 +27824,8 @@
           <t>5175722809</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:13:55</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44424.80133101852</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28641,10 +27893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:13:54</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44424.80131944444</v>
       </c>
       <c r="I384" t="n">
         <v>5</v>
@@ -28720,10 +27970,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:13:51</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44424.80128472222</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28799,10 +28047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:13:30</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44424.80104166667</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28870,10 +28116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:13:29</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44424.8010300926</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28950,10 +28194,8 @@
           <t>5175714078</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:13:19</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44424.80091435185</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29021,10 +28263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:12:44</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44424.80050925926</v>
       </c>
       <c r="I389" t="n">
         <v>276</v>
@@ -29100,10 +28340,8 @@
           <t>5175710249</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:12:01</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44424.80001157407</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29198,10 +28436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:11:29</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44424.7996412037</v>
       </c>
       <c r="I391" t="n">
         <v>13</v>
@@ -29265,10 +28501,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:11:02</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44424.7993287037</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29344,10 +28578,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:10:38</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44424.79905092593</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29411,10 +28643,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:10:21</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44424.79885416666</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29482,10 +28712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:10:19</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44424.79883101852</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29553,10 +28781,8 @@
           <t>5175695048</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:10:19</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44424.79883101852</v>
       </c>
       <c r="I396" t="n">
         <v>2</v>
@@ -29632,10 +28858,8 @@
           <t>5175679715</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:09:43</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44424.79841435186</v>
       </c>
       <c r="I397" t="n">
         <v>2</v>
@@ -29711,10 +28935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:09:33</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44424.79829861111</v>
       </c>
       <c r="I398" t="n">
         <v>29</v>
@@ -29782,10 +29004,8 @@
           <t>5175682769</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:09:32</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44424.79828703704</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29861,10 +29081,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:09:09</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44424.79802083333</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29933,10 +29151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:08:52</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44424.79782407408</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -30008,10 +29224,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:08:32</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44424.79759259259</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30083,10 +29297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:08:28</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44424.79754629629</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30154,10 +29366,8 @@
           <t>5175675376</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:08:24</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44424.7975</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30233,10 +29443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:08:23</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44424.79748842592</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30300,10 +29508,8 @@
           <t>5175471580</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:07:49</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44424.79709490741</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30375,10 +29581,8 @@
           <t>5175602200</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:06:52</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44424.79643518518</v>
       </c>
       <c r="I407" t="n">
         <v>3</v>
@@ -30442,10 +29646,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:06:34</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44424.79622685185</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30517,10 +29719,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:06:06</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44424.79590277778</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30588,10 +29788,8 @@
           <t>5175645124</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:05:18</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44424.79534722222</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30663,10 +29861,8 @@
           <t>5175628885</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:05:14</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44424.79530092593</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30734,10 +29930,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:05:08</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44424.79523148148</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30805,10 +29999,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:04:51</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44424.79503472222</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30868,10 +30060,8 @@
           <t>5175640747</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:04:44</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44424.79495370371</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30947,10 +30137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:04:40</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44424.79490740741</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31018,10 +30206,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:04:24</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44424.79472222222</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -31089,10 +30275,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:04:17</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44424.79464120371</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31168,10 +30352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:04:12</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44424.79458333334</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31243,10 +30425,8 @@
           <t>5175628885</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:04:06</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44424.79451388889</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31306,10 +30486,8 @@
           <t>5175630622</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:03:53</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44424.79436342593</v>
       </c>
       <c r="I420" t="n">
         <v>64</v>
@@ -31377,10 +30555,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:03:44</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44424.79425925926</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31448,10 +30624,8 @@
           <t>5175619808</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:03:37</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44424.79417824074</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31527,10 +30701,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:03:35</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44424.79415509259</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31598,10 +30770,8 @@
           <t>5175619616</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:03:33</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44424.79413194444</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31677,10 +30847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:03:29</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44424.79408564815</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31756,10 +30924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:03:25</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44424.79403935185</v>
       </c>
       <c r="I426" t="n">
         <v>39</v>
@@ -31827,10 +30993,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:03:16</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44424.79393518518</v>
       </c>
       <c r="I427" t="n">
         <v>4</v>
@@ -31898,10 +31062,8 @@
           <t>5175625707</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:03:01</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44424.79376157407</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31969,10 +31131,8 @@
           <t>5175615645</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:02:13</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44424.79320601852</v>
       </c>
       <c r="I429" t="n">
         <v>2</v>
@@ -32040,10 +31200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:02:12</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44424.79319444444</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32119,10 +31277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:01:51</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44424.79295138889</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32186,10 +31342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:01:28</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44424.79268518519</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -32261,10 +31415,8 @@
           <t>5175602811</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:01:19</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44424.79258101852</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32336,10 +31488,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:01:19</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44424.79258101852</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32415,10 +31565,8 @@
           <t>5175602200</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:01:07</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44424.79244212963</v>
       </c>
       <c r="I435" t="n">
         <v>7</v>
@@ -32494,10 +31642,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:01:07</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44424.79244212963</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32569,10 +31715,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:00:16</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44424.79185185185</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32644,10 +31788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:59:59</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44424.79165509259</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32719,10 +31861,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:59:44</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44424.79148148148</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32794,10 +31934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:59:26</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44424.79127314815</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32865,10 +32003,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:59:25</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44424.79126157407</v>
       </c>
       <c r="I441" t="n">
         <v>4</v>
@@ -32945,10 +32081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:59:17</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44424.79116898148</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -33024,10 +32158,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:59:04</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44424.79101851852</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33095,10 +32227,8 @@
           <t>5175580380</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:59:03</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44424.79100694445</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33174,10 +32304,8 @@
           <t>5175471580</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:58:42</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44424.79076388889</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33237,10 +32365,8 @@
           <t>5175577423</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:58:40</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44424.79074074074</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33316,10 +32442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:58:19</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44424.79049768519</v>
       </c>
       <c r="I447" t="n">
         <v>23</v>
@@ -33387,10 +32511,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:58:11</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44424.79040509259</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33466,10 +32588,8 @@
           <t>5175580380</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:57:59</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44424.7902662037</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33541,10 +32661,8 @@
           <t>5175580124</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:57:55</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44424.79021990741</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33612,10 +32730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:57:43</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44424.79008101852</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33691,10 +32807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:57:30</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44424.78993055555</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33758,10 +32872,8 @@
           <t>5175570931</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:57:23</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44424.78984953704</v>
       </c>
       <c r="I453" t="n">
         <v>3</v>
@@ -33837,10 +32949,8 @@
           <t>5175563425</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:57:17</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44424.78978009259</v>
       </c>
       <c r="I454" t="n">
         <v>4</v>
@@ -33908,10 +33018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:57:08</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44424.78967592592</v>
       </c>
       <c r="I455" t="n">
         <v>2</v>
@@ -33988,10 +33096,8 @@
           <t>5175558885</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:56:42</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44424.789375</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -34071,10 +33177,8 @@
           <t>5175554890</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:56:24</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44424.78916666667</v>
       </c>
       <c r="I457" t="n">
         <v>4</v>
@@ -34150,10 +33254,8 @@
           <t>5175553688</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:56:02</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44424.78891203704</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34217,10 +33319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:55:46</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44424.78872685185</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34296,10 +33396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:54:45</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44424.78802083333</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34367,10 +33465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:54:43</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44424.78799768518</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34442,10 +33538,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:53:56</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44424.78745370371</v>
       </c>
       <c r="I462" t="n">
         <v>5</v>
@@ -34509,10 +33603,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:53:54</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44424.78743055555</v>
       </c>
       <c r="I463" t="n">
         <v>4</v>
@@ -34580,10 +33672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:52:40</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44424.78657407407</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34647,10 +33737,8 @@
           <t>5175527080</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:52:39</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44424.7865625</v>
       </c>
       <c r="I465" t="n">
         <v>3</v>
@@ -34714,10 +33802,8 @@
           <t>5175414110</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:51:55</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44424.78605324074</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34789,10 +33875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:51:34</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44424.78581018518</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34860,10 +33944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:51:34</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44424.78581018518</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34927,10 +34009,8 @@
           <t>5175508477</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:51:28</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44424.78574074074</v>
       </c>
       <c r="I469" t="n">
         <v>2</v>
@@ -35002,10 +34082,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:51:13</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44424.78556712963</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -35073,10 +34151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:50:27</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44424.78503472222</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35153,10 +34229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:50:11</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44424.78484953703</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35228,10 +34302,8 @@
           <t>5175501571</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:49:54</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44424.78465277778</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -35299,10 +34371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:49:41</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44424.78450231482</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35366,10 +34436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:49:41</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44424.78450231482</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -35445,10 +34513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:49:39</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44424.78447916666</v>
       </c>
       <c r="I476" t="n">
         <v>27</v>
@@ -35524,10 +34590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:48:57</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44424.78399305556</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35591,10 +34655,8 @@
           <t>5175479721</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:48:32</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44424.7837037037</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35658,10 +34720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:48:22</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44424.78358796296</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35725,10 +34785,8 @@
           <t>5175478493</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:48:06</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44424.78340277778</v>
       </c>
       <c r="I480" t="n">
         <v>35</v>
@@ -35804,10 +34862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:47:53</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44424.78325231482</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35883,10 +34939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:47:50</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44424.78321759259</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35959,10 +35013,8 @@
           <t>5175427606</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:47:43</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44424.78313657407</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -36026,10 +35078,8 @@
           <t>5175477073</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:47:40</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44424.78310185186</v>
       </c>
       <c r="I484" t="n">
         <v>16</v>
@@ -36106,10 +35156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:46:59</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44424.78262731482</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36174,10 +35222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:46:49</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44424.78251157407</v>
       </c>
       <c r="I486" t="n">
         <v>764</v>
@@ -36245,10 +35291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:46:36</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44424.78236111111</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36316,10 +35360,8 @@
           <t>5175471580</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:46:32</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44424.78231481482</v>
       </c>
       <c r="I488" t="n">
         <v>4</v>
@@ -36395,10 +35437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:46:30</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44424.78229166667</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36466,10 +35506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:46:22</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44424.78219907408</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36533,10 +35571,8 @@
           <t>5175462379</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:46:07</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44424.78202546296</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36608,10 +35644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:45:25</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44424.78153935185</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36679,10 +35713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:45:24</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44424.78152777778</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36750,10 +35782,8 @@
           <t>5175457689</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:45:15</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44424.78142361111</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36825,10 +35855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:44:56</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44424.7812037037</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36900,10 +35928,8 @@
           <t>5175447405</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:44:29</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44424.78089120371</v>
       </c>
       <c r="I496" t="n">
         <v>36</v>
@@ -36971,10 +35997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:44:19</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44424.78077546296</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -37050,10 +36074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:43:59</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44424.78054398148</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37121,10 +36143,8 @@
           <t>5175437987</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:43:41</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44424.78033564815</v>
       </c>
       <c r="I499" t="n">
         <v>41</v>
@@ -37196,10 +36216,8 @@
           <t>5175414110</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:43:33</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44424.78024305555</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37271,10 +36289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:43:23</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44424.78012731481</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37338,10 +36354,8 @@
           <t>5175432718</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:43:00</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44424.77986111111</v>
       </c>
       <c r="I502" t="n">
         <v>7</v>
@@ -37413,10 +36427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:42:26</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44424.77946759259</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37484,10 +36496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:42:24</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44424.77944444444</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37563,10 +36573,8 @@
           <t>5175427606</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:42:18</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44424.779375</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37655,10 +36663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:41:46</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44424.77900462963</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37730,10 +36736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:41:25</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44424.77876157407</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37812,10 +36816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:41:24</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44424.77875</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37883,10 +36885,8 @@
           <t>5175387553</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:41:20</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44424.77870370371</v>
       </c>
       <c r="I509" t="n">
         <v>11</v>
@@ -37962,10 +36962,8 @@
           <t>5175414110</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:41:15</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44424.77864583334</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -38041,10 +37039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:41:12</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44424.77861111111</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -38116,10 +37112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:41:09</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44424.77857638889</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38195,10 +37189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:41:07</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44424.77855324074</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38274,10 +37266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:41:03</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44424.77850694444</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -38345,10 +37335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:40:53</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44424.7783912037</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38420,10 +37408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:40:52</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44424.77837962963</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38499,10 +37485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:40:50</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44424.77835648148</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38570,10 +37554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:40:39</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44424.77822916667</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38649,10 +37631,8 @@
           <t>5175408933</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:40:35</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44424.77818287037</v>
       </c>
       <c r="I519" t="n">
         <v>8</v>
@@ -38720,10 +37700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:40:23</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44424.77804398148</v>
       </c>
       <c r="I520" t="n">
         <v>25</v>
@@ -38795,10 +37773,8 @@
           <t>5175411185</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:40:23</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44424.77804398148</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38874,10 +37850,8 @@
           <t>5175404805</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:40:21</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44424.77802083334</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38953,10 +37927,8 @@
           <t>5175404280</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:40:10</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44424.77789351852</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -39024,10 +37996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:39:47</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44424.77762731481</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -39095,10 +38065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:39:35</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44424.77748842593</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -39174,10 +38142,8 @@
           <t>5175405991</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:39:34</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44424.77747685185</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -39255,10 +38221,8 @@
           <t>5175402337</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:39:31</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44424.77744212963</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -39326,10 +38290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:39:18</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44424.77729166667</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39397,10 +38359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:39:12</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44424.77722222222</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39468,10 +38428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:38:57</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44424.77704861111</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39540,10 +38498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:38:31</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44424.77674768519</v>
       </c>
       <c r="I531" t="n">
         <v>2</v>
@@ -39611,10 +38567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:38:23</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44424.7766550926</v>
       </c>
       <c r="I532" t="n">
         <v>71</v>
@@ -39690,10 +38644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:38:16</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44424.77657407407</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39757,10 +38709,8 @@
           <t>5175387553</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:37:56</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44424.7763425926</v>
       </c>
       <c r="I534" t="n">
         <v>17</v>
@@ -39836,10 +38786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:37:54</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44424.77631944444</v>
       </c>
       <c r="I535" t="n">
         <v>3</v>
@@ -39916,10 +38864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:37:46</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44424.77622685185</v>
       </c>
       <c r="I536" t="n">
         <v>7</v>
@@ -39991,10 +38937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:37:38</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44424.77613425926</v>
       </c>
       <c r="I537" t="n">
         <v>173</v>
@@ -40070,10 +39014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:37:21</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44424.7759375</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -40149,10 +39091,8 @@
           <t>5175379323</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:37:16</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44424.77587962963</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -40220,10 +39160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:37:01</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44424.77570601852</v>
       </c>
       <c r="I540" t="n">
         <v>9</v>
@@ -40305,10 +39243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:36:56</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44424.77564814815</v>
       </c>
       <c r="I541" t="n">
         <v>739</v>
@@ -40372,10 +39308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:36:49</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44424.77556712963</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40443,10 +39377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:36:45</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44424.77552083333</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40510,10 +39442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:36:45</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44424.77552083333</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40585,10 +39515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:36:32</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44424.77537037037</v>
       </c>
       <c r="I545" t="n">
         <v>4</v>
@@ -40656,10 +39584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:36:14</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44424.77516203704</v>
       </c>
       <c r="I546" t="n">
         <v>2</v>
@@ -40731,10 +39657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:36:03</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44424.77503472222</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40810,10 +39734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:35:42</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44424.77479166666</v>
       </c>
       <c r="I548" t="n">
         <v>9</v>
@@ -40889,10 +39811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:35:42</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44424.77479166666</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40961,10 +39881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:35:29</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44424.7746412037</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -41036,10 +39954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:35:27</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44424.77461805556</v>
       </c>
       <c r="I551" t="n">
         <v>5</v>
@@ -41115,10 +40031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:35:26</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44424.77460648148</v>
       </c>
       <c r="I552" t="n">
         <v>93</v>
@@ -41186,10 +40100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:35:25</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44424.77459490741</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -41261,10 +40173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:35:20</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44424.77453703704</v>
       </c>
       <c r="I554" t="n">
         <v>3</v>
@@ -41332,10 +40242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:35:16</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44424.77449074074</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41413,10 +40321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:35:14</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44424.77446759259</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41495,10 +40401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:35:11</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44424.77443287037</v>
       </c>
       <c r="I557" t="n">
         <v>1</v>
@@ -41574,10 +40478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:52</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44424.77421296296</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41653,10 +40555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:51</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44424.77420138889</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41725,10 +40625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:51</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44424.77420138889</v>
       </c>
       <c r="I560" t="n">
         <v>436</v>
@@ -41792,10 +40690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:50</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44424.77418981482</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41863,10 +40759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:37</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44424.77403935185</v>
       </c>
       <c r="I562" t="n">
         <v>1622</v>
@@ -41942,10 +40836,8 @@
           <t>5175357089</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:37</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44424.77403935185</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -42021,10 +40913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:36</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44424.77402777778</v>
       </c>
       <c r="I564" t="n">
         <v>1</v>
@@ -42088,10 +40978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:35</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44424.7740162037</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -42168,10 +41056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:34</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44424.77400462963</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -42247,10 +41133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:30</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44424.77395833333</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -42323,10 +41207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:29</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44424.77394675926</v>
       </c>
       <c r="I568" t="n">
         <v>2</v>
@@ -42402,10 +41284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:27</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44424.77392361111</v>
       </c>
       <c r="I569" t="n">
         <v>239</v>
@@ -42481,10 +41361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:23</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44424.77387731482</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42548,10 +41426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:21</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44424.77385416667</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42627,10 +41503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:21</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44424.77385416667</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42698,10 +41572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:20</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44424.77384259259</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42777,10 +41649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:16</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44424.77379629629</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -42852,10 +41722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:13</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44424.77376157408</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42923,10 +41791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:34:09</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44424.77371527778</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -43002,10 +41868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:33:59</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44424.77359953704</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
